--- a/phân công.xlsx
+++ b/phân công.xlsx
@@ -24,79 +24,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
-  <si>
-    <t>Xây dựng phần mềm bán hàng cho siêu thị</t>
-  </si>
-  <si>
-    <t>Xây dựng cơ sở dữ liệu hàng hóa, nhân viên, khách hàng, hóa đơn</t>
-  </si>
-  <si>
-    <t>Thiế kế giao diện cửa sổ chính ( màn hình đăng nhập, các menu trỏ đến module con…)</t>
-  </si>
-  <si>
-    <t>Xây dựng module nhập hàng mới về</t>
-  </si>
-  <si>
-    <t>Xây dựn module bán hàng</t>
-  </si>
-  <si>
-    <t>Xây dựng mudule tìm kiếm hàng theo các tiêu chí</t>
-  </si>
-  <si>
-    <t>Xây dựng module thống kê hàng hóa trong kho, lưu lượng nhập bán</t>
-  </si>
-  <si>
-    <t>Xây dựng module quản lý khách hàng</t>
-  </si>
-  <si>
-    <t>Xây dựng module quản lý nhân viên</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Phụ trách</t>
   </si>
   <si>
-    <t>Xây dựng module hướng dẫn sử dụng phần mềm (menu Help, F1) chi tiết đến từng chức năng</t>
-  </si>
-  <si>
-    <t>Xây dựng tài liệu hướng dẫn cài đặt, vận hành</t>
-  </si>
-  <si>
-    <t>6.10</t>
-  </si>
-  <si>
-    <t>Ghép nối các module để nhận được phần mềm hoàn chỉnh</t>
-  </si>
-  <si>
-    <t>Chạy kiểm thử phần mềm kết quả</t>
-  </si>
-  <si>
     <t>Chức</t>
   </si>
   <si>
-    <t>sơn</t>
-  </si>
-  <si>
     <t>quân</t>
   </si>
   <si>
-    <t>trang</t>
-  </si>
-  <si>
     <t>chiến</t>
   </si>
   <si>
     <t>thảo</t>
   </si>
   <si>
-    <t>chức</t>
+    <t>Xây dựng phần mềm bán hàng cho siêu thị - kho</t>
+  </si>
+  <si>
+    <t>Thiết kế giao diện, kết nối các bảng, viết đăng nhập</t>
+  </si>
+  <si>
+    <t>Xây dựng module Khách hàng: khách hàng, hóa đơn - chi tiết hóa đơn</t>
+  </si>
+  <si>
+    <t>Xây dựng module Hàng hóa:</t>
+  </si>
+  <si>
+    <t>Mặt hàng, nhà cung cấp, nhập kho-chi tiết nhâp kho</t>
+  </si>
+  <si>
+    <t>6.4.1</t>
+  </si>
+  <si>
+    <t>6.4.2</t>
+  </si>
+  <si>
+    <t>Xuất kho-chi tiết xuất kho, kho hàng - quầy hàng, kiểm kê</t>
+  </si>
+  <si>
+    <t>Xây dựng module nhân viên: nhân viên, phiếu giao ca- chi tiết phiếu giao ca</t>
+  </si>
+  <si>
+    <t>Sơn</t>
+  </si>
+  <si>
+    <t>Trang</t>
+  </si>
+  <si>
+    <t>Viết hướng dẫn cho hệ thống, test</t>
+  </si>
+  <si>
+    <t>Xây dựng cơ sở dữ liệu: sản phẩm, nhà cung cấp, khách hàng, hóa đơn, chi tiết hóa đơn, nhân viên, chức vụ, phiếu giao ca, chi tiết phiếu giao ca, kho hàng, quầy hàng, nhập  kho, chi tiết nhập kho, xuất kho, chi tiết xuất kho, phiếu kiểm kê</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,27 +100,20 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -146,7 +127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -171,19 +152,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -211,23 +179,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,17 +544,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="82.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14" style="12" customWidth="1"/>
+    <col min="4" max="4" width="90.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -558,150 +563,128 @@
     <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="2">
         <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="2">
         <v>6.1</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="5">
         <v>6.2</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="7" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="5">
         <v>6.3</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="5">
+    </row>
+    <row r="9" spans="1:5" s="7" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="8">
         <v>6.4</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="5">
+    </row>
+    <row r="12" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="5">
         <v>6.5</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="5">
+      <c r="D12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="2">
         <v>6.6</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="5">
-        <v>6.7</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="5">
-        <v>6.8</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>20</v>
+      <c r="D13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="5">
-        <v>6.9</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16"/>
     </row>
     <row r="15" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="16"/>
     </row>
     <row r="16" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="5">
-        <v>6.11</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="9">
-        <v>6.12</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="13"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/phân công.xlsx
+++ b/phân công.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3tailieu\thuctapnhom\bai6_quanlysieuthi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3tailieu\thuctapnhom\quanlybanhangsieuthi\quanlybanhangsieuthi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -53,9 +53,6 @@
     <t>Xây dựng module Hàng hóa:</t>
   </si>
   <si>
-    <t>Mặt hàng, nhà cung cấp, nhập kho-chi tiết nhâp kho</t>
-  </si>
-  <si>
     <t>6.4.1</t>
   </si>
   <si>
@@ -74,10 +71,13 @@
     <t>Trang</t>
   </si>
   <si>
-    <t>Viết hướng dẫn cho hệ thống, test</t>
-  </si>
-  <si>
     <t>Xây dựng cơ sở dữ liệu: sản phẩm, nhà cung cấp, khách hàng, hóa đơn, chi tiết hóa đơn, nhân viên, chức vụ, phiếu giao ca, chi tiết phiếu giao ca, kho hàng, quầy hàng, nhập  kho, chi tiết nhập kho, xuất kho, chi tiết xuất kho, phiếu kiểm kê</t>
+  </si>
+  <si>
+    <t>Mặt hàng, nhà cung cấp,</t>
+  </si>
+  <si>
+    <t>Viết hướng dẫn cho hệ thống, test,hoàn thiện chương trình</t>
   </si>
 </sst>
 </file>
@@ -544,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,7 +579,7 @@
         <v>6.1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>1</v>
@@ -618,10 +618,10 @@
     </row>
     <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>2</v>
@@ -629,10 +629,10 @@
     </row>
     <row r="11" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>4</v>
@@ -643,10 +643,10 @@
         <v>6.5</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -654,10 +654,10 @@
         <v>6.6</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
